--- a/solar_financial_model_inputs.xlsx
+++ b/solar_financial_model_inputs.xlsx
@@ -8,21 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dialogasia.sharepoint.com/sites/oe-departmental/Green COE/2. Decarbonisation/1. Green Energy/1. Solar Power/1. Evaluations/model-generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_3043975BDCA17382A1F957965959A679F41E36D5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2BE469E6-8A7F-4F43-A758-E753709623E9}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="11_3043975BDCA17382A1F957965959A679F41E36D5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9856CE20-0B55-4C56-A42F-CC55BE7E7376}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Input Details" sheetId="1" r:id="rId1"/>
     <sheet name="Scenarios" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Capacity (kWp)</t>
   </si>
@@ -100,6 +99,9 @@
   </si>
   <si>
     <t>increase_then_reduce</t>
+  </si>
+  <si>
+    <t>Energy Export Allowed</t>
   </si>
 </sst>
 </file>
@@ -128,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -151,13 +153,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -462,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,7 +504,7 @@
     <col min="16" max="16" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,8 +553,11 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>88</v>
       </c>
@@ -549,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>0.29799999999999999</v>
@@ -587,8 +606,11 @@
       <c r="P2">
         <v>2</v>
       </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>18.27</v>
       </c>
@@ -599,7 +621,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>0.29799999999999999</v>
@@ -637,8 +659,11 @@
       <c r="P3">
         <v>2</v>
       </c>
+      <c r="Q3" t="b">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>65.540000000000006</v>
       </c>
@@ -649,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0.29799999999999999</v>
@@ -686,6 +711,9 @@
       </c>
       <c r="P4">
         <v>2</v>
+      </c>
+      <c r="Q4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -700,7 +728,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -803,6 +831,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="f3818e54-6791-4167-8bdf-6fd6e2741687" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a6b398a-4bb9-414e-8c3f-3e6482c1e9ed">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B189C0425820694BB39C66E1D63C456C" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="de6efd98d7fcb2a854f25e31bf44d29a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="7a6b398a-4bb9-414e-8c3f-3e6482c1e9ed" xmlns:ns3="f3818e54-6791-4167-8bdf-6fd6e2741687" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2223ec9ff43e0fc63d8de49e750e241b" ns2:_="" ns3:_="">
     <xsd:import namespace="7a6b398a-4bb9-414e-8c3f-3e6482c1e9ed"/>
@@ -1037,7 +1076,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1046,25 +1085,40 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="f3818e54-6791-4167-8bdf-6fd6e2741687" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7a6b398a-4bb9-414e-8c3f-3e6482c1e9ed">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4CCDDE-A149-4E6D-BF99-223B1A0F8FB9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92AC2047-80D6-4D41-B5C9-9B9A587040B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="f3818e54-6791-4167-8bdf-6fd6e2741687"/>
+    <ds:schemaRef ds:uri="7a6b398a-4bb9-414e-8c3f-3e6482c1e9ed"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83312BAC-EDFE-492F-A17B-F381A99382C9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED4CCDDE-A149-4E6D-BF99-223B1A0F8FB9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7a6b398a-4bb9-414e-8c3f-3e6482c1e9ed"/>
+    <ds:schemaRef ds:uri="f3818e54-6791-4167-8bdf-6fd6e2741687"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92AC2047-80D6-4D41-B5C9-9B9A587040B8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83312BAC-EDFE-492F-A17B-F381A99382C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>